--- a/xlsx/政策_政策_貨幣政策_intext.xlsx
+++ b/xlsx/政策_政策_貨幣政策_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>貨幣政策</t>
   </si>
@@ -561,348 +561,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%B3%D9%8A%D8%A7%D8%B3%D8%A9_%D9%86%D9%82%D8%AF%D9%8A%D8%A9</t>
-  </si>
-  <si>
-    <t>سياسة نقدية – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://az.wikipedia.org/wiki/Pul-kredit_(monetar)_siyas%C9%99ti</t>
-  </si>
-  <si>
-    <t>Pul-kredit (monetar) siyasəti – 阿塞拜疆语</t>
-  </si>
-  <si>
-    <t>https://be.wikipedia.org/wiki/%D0%9C%D0%B0%D0%BD%D0%B5%D1%82%D0%B0%D1%80%D0%BD%D0%B0%D1%8F_%D0%BF%D0%B0%D0%BB%D1%96%D1%82%D1%8B%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Манетарная палітыка – 白俄罗斯语</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%9F%D0%B0%D1%80%D0%B8%D1%87%D0%BD%D0%B0_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Парична политика – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://bs.wikipedia.org/wiki/Monetarna_politika</t>
-  </si>
-  <si>
-    <t>Monetarna politika – 波斯尼亚语</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Pol%C3%ADtica_monet%C3%A0ria</t>
-  </si>
-  <si>
-    <t>Política monetària – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/M%C4%9Bnov%C3%A1_politika</t>
-  </si>
-  <si>
-    <t>Měnová politika – 捷克语</t>
-  </si>
-  <si>
-    <t>https://cy.wikipedia.org/wiki/Polisi_ariannol</t>
-  </si>
-  <si>
-    <t>Polisi ariannol – 威尔士语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Pengepolitik</t>
-  </si>
-  <si>
-    <t>Pengepolitik – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Geldpolitik</t>
-  </si>
-  <si>
-    <t>Geldpolitik – 德语</t>
-  </si>
-  <si>
-    <t>https://el.wikipedia.org/wiki/%CE%9D%CE%BF%CE%BC%CE%B9%CF%83%CE%BC%CE%B1%CF%84%CE%B9%CE%BA%CE%AE_%CF%80%CE%BF%CE%BB%CE%B9%CF%84%CE%B9%CE%BA%CE%AE</t>
-  </si>
-  <si>
-    <t>Νομισματική πολιτική – 希腊语</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Monetary_policy</t>
-  </si>
-  <si>
-    <t>Monetary policy – 英语</t>
-  </si>
-  <si>
-    <t>https://eo.wikipedia.org/wiki/Monpolitiko</t>
-  </si>
-  <si>
-    <t>Monpolitiko – 世界语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Pol%C3%ADtica_monetaria</t>
-  </si>
-  <si>
-    <t>Política monetaria – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/Rahapoliitika</t>
-  </si>
-  <si>
-    <t>Rahapoliitika – 爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%D8%AA_%D9%BE%D9%88%D9%84%DB%8C</t>
-  </si>
-  <si>
-    <t>سیاست پولی – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Rahapolitiikka</t>
-  </si>
-  <si>
-    <t>Rahapolitiikka – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fo.wikipedia.org/wiki/Pengapolitikkur</t>
-  </si>
-  <si>
-    <t>Pengapolitikkur – 法罗语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Politique_mon%C3%A9taire</t>
-  </si>
-  <si>
-    <t>Politique monétaire – 法语</t>
-  </si>
-  <si>
-    <t>https://gl.wikipedia.org/wiki/Pol%C3%ADtica_monetaria</t>
-  </si>
-  <si>
-    <t>Política monetaria – 加利西亚语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%9E%D7%93%D7%99%D7%A0%D7%99%D7%95%D7%AA_%D7%9E%D7%95%D7%A0%D7%99%D7%98%D7%A8%D7%99%D7%AA</t>
-  </si>
-  <si>
-    <t>מדיניות מוניטרית – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%AE%E0%A5%8C%E0%A4%A6%E0%A5%8D%E0%A4%B0%E0%A4%BF%E0%A4%95_%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF</t>
-  </si>
-  <si>
-    <t>मौद्रिक नीति – 印地语</t>
-  </si>
-  <si>
-    <t>https://hu.wikipedia.org/wiki/Monet%C3%A1ris_politika</t>
-  </si>
-  <si>
-    <t>Monetáris politika – 匈牙利语</t>
-  </si>
-  <si>
-    <t>https://hy.wikipedia.org/wiki/%D4%B4%D6%80%D5%A1%D5%B4%D5%A1%D5%BE%D5%A1%D6%80%D5%AF%D5%A1%D5%B5%D5%AB%D5%B6_%D6%84%D5%A1%D5%B2%D5%A1%D6%84%D5%A1%D5%AF%D5%A1%D5%B6%D5%B8%D6%82%D5%A9%D5%B5%D5%B8%D6%82%D5%B6</t>
-  </si>
-  <si>
-    <t>Դրամավարկային քաղաքականություն – 亚美尼亚语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Kebijakan_moneter</t>
-  </si>
-  <si>
-    <t>Kebijakan moneter – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://it.wikipedia.org/wiki/Politica_monetaria</t>
-  </si>
-  <si>
-    <t>Politica monetaria – 意大利语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>金融政策 – 日语</t>
-  </si>
-  <si>
-    <t>https://ka.wikipedia.org/wiki/%E1%83%9B%E1%83%9D%E1%83%9C%E1%83%94%E1%83%A2%E1%83%90%E1%83%A0%E1%83%A3%E1%83%9A%E1%83%98_%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%90</t>
-  </si>
-  <si>
-    <t>მონეტარული პოლიტიკა – 格鲁吉亚语</t>
-  </si>
-  <si>
-    <t>https://kk.wikipedia.org/wiki/%D0%90%D2%9B%D1%88%D0%B0-%D0%BD%D0%B5%D1%81%D0%B8%D0%B5_%D1%81%D0%B0%D1%8F%D1%81%D0%B0%D1%82%D1%8B</t>
-  </si>
-  <si>
-    <t>Ақша-несие саясаты – 哈萨克语</t>
-  </si>
-  <si>
-    <t>https://km.wikipedia.org/wiki/%E1%9E%82%E1%9F%84%E1%9E%9B%E1%9E%93%E1%9E%99%E1%9F%84%E1%9E%94%E1%9E%B6%E1%9E%99%E1%9E%9A%E1%9E%BC%E1%9E%94%E1%9E%B7%E1%9E%99%E1%9E%9C%E1%9E%8F%E1%9F%92%E1%9E%90%E1%9E%BB</t>
-  </si>
-  <si>
-    <t>គោលនយោបាយរូបិយវត្ថុ – 高棉语</t>
-  </si>
-  <si>
-    <t>https://kn.wikipedia.org/wiki/%E0%B2%B5%E0%B2%BF%E0%B2%A4%E0%B3%8D%E0%B2%A4%E0%B3%80%E0%B2%AF_%E0%B2%A8%E0%B3%80%E0%B2%A4%E0%B2%BF</t>
-  </si>
-  <si>
-    <t>ವಿತ್ತೀಯ ನೀತಿ – 卡纳达语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%ED%86%B5%ED%99%94_%EC%A0%95%EC%B1%85</t>
-  </si>
-  <si>
-    <t>통화 정책 – 韩语</t>
-  </si>
-  <si>
-    <t>https://lo.wikipedia.org/wiki/%E0%BA%99%E0%BA%B0%E0%BB%82%E0%BA%8D%E0%BA%9A%E0%BA%B2%E0%BA%8D%E0%BB%80%E0%BA%87%E0%BA%B4%E0%BA%99%E0%BA%95%E0%BA%B2</t>
-  </si>
-  <si>
-    <t>ນະໂຍບາຍເງິນຕາ – 老挝语</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/Pinig%C5%B3_politika</t>
-  </si>
-  <si>
-    <t>Pinigų politika – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://lv.wikipedia.org/wiki/Monet%C4%81r%C4%81_politika</t>
-  </si>
-  <si>
-    <t>Monetārā politika – 拉脱维亚语</t>
-  </si>
-  <si>
-    <t>https://mk.wikipedia.org/wiki/%D0%9C%D0%BE%D0%BD%D0%B5%D1%82%D0%B0%D1%80%D0%BD%D0%B0_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Монетарна политика – 马其顿语</t>
-  </si>
-  <si>
-    <t>https://ml.wikipedia.org/wiki/%E0%B4%AA%E0%B4%A3%E0%B4%A8%E0%B4%AF%E0%B4%82</t>
-  </si>
-  <si>
-    <t>പണനയം – 马拉雅拉姆语</t>
-  </si>
-  <si>
-    <t>https://mr.wikipedia.org/wiki/%E0%A4%AE%E0%A5%8C%E0%A4%A6%E0%A5%8D%E0%A4%B0%E0%A4%BF%E0%A4%95_%E0%A4%85%E0%A4%B0%E0%A5%8D%E0%A4%A5%E0%A4%B6%E0%A4%BE%E0%A4%B8%E0%A5%8D%E0%A4%A4%E0%A5%8D%E0%A4%B0</t>
-  </si>
-  <si>
-    <t>मौद्रिक अर्थशास्त्र – 马拉地语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Monetair_beleid</t>
-  </si>
-  <si>
-    <t>Monetair beleid – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://nn.wikipedia.org/wiki/Pengepolitikk</t>
-  </si>
-  <si>
-    <t>Pengepolitikk – 挪威尼诺斯克语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/Pengepolitikk</t>
-  </si>
-  <si>
-    <t>Pengepolitikk – 挪威语</t>
-  </si>
-  <si>
-    <t>https://pa.wikipedia.org/wiki/%E0%A8%AE%E0%A9%81%E0%A8%A6%E0%A9%8D%E0%A8%B0%E0%A8%BE_%E0%A8%A8%E0%A9%80%E0%A8%A4%E0%A9%80</t>
-  </si>
-  <si>
-    <t>ਮੁਦ੍ਰਾ ਨੀਤੀ – 旁遮普语</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Polityka_pieni%C4%99%C5%BCna</t>
-  </si>
-  <si>
-    <t>Polityka pieniężna – 波兰语</t>
-  </si>
-  <si>
-    <t>https://ps.wikipedia.org/wiki/%D9%BE%D9%88%D9%84%D9%8A_%D8%B3%DB%8C%D8%A7%D8%B3%D8%AA</t>
-  </si>
-  <si>
-    <t>پولي سیاست – 普什图语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Pol%C3%ADtica_monet%C3%A1ria</t>
-  </si>
-  <si>
-    <t>Política monetária – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://ro.wikipedia.org/wiki/Politic%C4%83_monetar%C4%83</t>
-  </si>
-  <si>
-    <t>Politică monetară – 罗马尼亚语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%94%D0%B5%D0%BD%D0%B5%D0%B6%D0%BD%D0%BE-%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%BD%D0%B0%D1%8F_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0_%D0%B3%D0%BE%D1%81%D1%83%D0%B4%D0%B0%D1%80%D1%81%D1%82%D0%B2%D0%B0</t>
-  </si>
-  <si>
-    <t>Денежно-кредитная политика государства – 俄语</t>
-  </si>
-  <si>
-    <t>https://sah.wikipedia.org/wiki/%D0%A5%D0%B0%D1%80%D1%87%D1%8B_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0%D1%82%D0%B0</t>
-  </si>
-  <si>
-    <t>Харчы политиката – 萨哈语</t>
-  </si>
-  <si>
-    <t>https://sk.wikipedia.org/wiki/Monet%C3%A1rna_politika</t>
-  </si>
-  <si>
-    <t>Monetárna politika – 斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://sl.wikipedia.org/wiki/Monetarna_politika</t>
-  </si>
-  <si>
-    <t>Monetarna politika – 斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://sr.wikipedia.org/wiki/%D0%9C%D0%BE%D0%BD%D0%B5%D1%82%D0%B0%D1%80%D0%BD%D0%B0_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Монетарна политика – 塞尔维亚语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Penningpolitik</t>
-  </si>
-  <si>
-    <t>Penningpolitik – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%AA%E0%AE%A3%E0%AE%B5%E0%AE%BF%E0%AE%AF%E0%AE%B2%E0%AF%8D_%E0%AE%95%E0%AF%8A%E0%AE%B3%E0%AF%8D%E0%AE%95%E0%AF%88</t>
-  </si>
-  <si>
-    <t>பணவியல் கொள்கை – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/Para_politikas%C4%B1</t>
-  </si>
-  <si>
-    <t>Para politikası – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%9C%D0%BE%D0%BD%D0%B5%D1%82%D0%B0%D1%80%D0%BD%D0%B0_%D0%BF%D0%BE%D0%BB%D1%96%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Монетарна політика – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://ur.wikipedia.org/wiki/%D8%B2%D8%B1%DB%8C_%D9%BE%D8%A7%D9%84%DB%8C%D8%B3%DB%8C</t>
-  </si>
-  <si>
-    <t>زری پالیسی – 乌尔都语</t>
-  </si>
-  <si>
-    <t>https://vi.wikipedia.org/wiki/Ch%C3%ADnh_s%C3%A1ch_ti%E1%BB%81n_t%E1%BB%87</t>
-  </si>
-  <si>
-    <t>Chính sách tiền tệ – 越南语</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3953,1659 +3611,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>182</v>
-      </c>
-      <c r="F94" t="s">
-        <v>183</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>94</v>
-      </c>
-      <c r="E95" t="s">
-        <v>184</v>
-      </c>
-      <c r="F95" t="s">
-        <v>185</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>4</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>95</v>
-      </c>
-      <c r="E96" t="s">
-        <v>186</v>
-      </c>
-      <c r="F96" t="s">
-        <v>187</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>4</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" t="n">
-        <v>96</v>
-      </c>
-      <c r="E97" t="s">
-        <v>188</v>
-      </c>
-      <c r="F97" t="s">
-        <v>189</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
-        <v>4</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" t="n">
-        <v>97</v>
-      </c>
-      <c r="E98" t="s">
-        <v>190</v>
-      </c>
-      <c r="F98" t="s">
-        <v>191</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>4</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>98</v>
-      </c>
-      <c r="E99" t="s">
-        <v>192</v>
-      </c>
-      <c r="F99" t="s">
-        <v>193</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" t="s">
-        <v>4</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" t="n">
-        <v>99</v>
-      </c>
-      <c r="E100" t="s">
-        <v>194</v>
-      </c>
-      <c r="F100" t="s">
-        <v>195</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>100</v>
-      </c>
-      <c r="E101" t="s">
-        <v>196</v>
-      </c>
-      <c r="F101" t="s">
-        <v>197</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>101</v>
-      </c>
-      <c r="E102" t="s">
-        <v>198</v>
-      </c>
-      <c r="F102" t="s">
-        <v>199</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1</v>
-      </c>
-      <c r="H102" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>102</v>
-      </c>
-      <c r="E103" t="s">
-        <v>200</v>
-      </c>
-      <c r="F103" t="s">
-        <v>201</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
-        <v>4</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>103</v>
-      </c>
-      <c r="E104" t="s">
-        <v>202</v>
-      </c>
-      <c r="F104" t="s">
-        <v>203</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>4</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>104</v>
-      </c>
-      <c r="E105" t="s">
-        <v>204</v>
-      </c>
-      <c r="F105" t="s">
-        <v>205</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>4</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>105</v>
-      </c>
-      <c r="E106" t="s">
-        <v>206</v>
-      </c>
-      <c r="F106" t="s">
-        <v>207</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>4</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>106</v>
-      </c>
-      <c r="E107" t="s">
-        <v>208</v>
-      </c>
-      <c r="F107" t="s">
-        <v>209</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1</v>
-      </c>
-      <c r="H107" t="s">
-        <v>4</v>
-      </c>
-      <c r="I107" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>107</v>
-      </c>
-      <c r="E108" t="s">
-        <v>210</v>
-      </c>
-      <c r="F108" t="s">
-        <v>211</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1</v>
-      </c>
-      <c r="H108" t="s">
-        <v>4</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>108</v>
-      </c>
-      <c r="E109" t="s">
-        <v>212</v>
-      </c>
-      <c r="F109" t="s">
-        <v>213</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>4</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>109</v>
-      </c>
-      <c r="E110" t="s">
-        <v>214</v>
-      </c>
-      <c r="F110" t="s">
-        <v>215</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" t="s">
-        <v>4</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>110</v>
-      </c>
-      <c r="E111" t="s">
-        <v>216</v>
-      </c>
-      <c r="F111" t="s">
-        <v>217</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1</v>
-      </c>
-      <c r="H111" t="s">
-        <v>4</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>111</v>
-      </c>
-      <c r="E112" t="s">
-        <v>218</v>
-      </c>
-      <c r="F112" t="s">
-        <v>219</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1</v>
-      </c>
-      <c r="H112" t="s">
-        <v>4</v>
-      </c>
-      <c r="I112" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>112</v>
-      </c>
-      <c r="E113" t="s">
-        <v>220</v>
-      </c>
-      <c r="F113" t="s">
-        <v>221</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1</v>
-      </c>
-      <c r="H113" t="s">
-        <v>4</v>
-      </c>
-      <c r="I113" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" t="n">
-        <v>113</v>
-      </c>
-      <c r="E114" t="s">
-        <v>222</v>
-      </c>
-      <c r="F114" t="s">
-        <v>223</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1</v>
-      </c>
-      <c r="H114" t="s">
-        <v>4</v>
-      </c>
-      <c r="I114" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>114</v>
-      </c>
-      <c r="E115" t="s">
-        <v>224</v>
-      </c>
-      <c r="F115" t="s">
-        <v>225</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" t="s">
-        <v>4</v>
-      </c>
-      <c r="I115" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" t="n">
-        <v>115</v>
-      </c>
-      <c r="E116" t="s">
-        <v>226</v>
-      </c>
-      <c r="F116" t="s">
-        <v>227</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1</v>
-      </c>
-      <c r="H116" t="s">
-        <v>4</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117" t="n">
-        <v>116</v>
-      </c>
-      <c r="E117" t="s">
-        <v>228</v>
-      </c>
-      <c r="F117" t="s">
-        <v>229</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1</v>
-      </c>
-      <c r="H117" t="s">
-        <v>4</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>117</v>
-      </c>
-      <c r="E118" t="s">
-        <v>230</v>
-      </c>
-      <c r="F118" t="s">
-        <v>231</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1</v>
-      </c>
-      <c r="H118" t="s">
-        <v>4</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>118</v>
-      </c>
-      <c r="E119" t="s">
-        <v>232</v>
-      </c>
-      <c r="F119" t="s">
-        <v>233</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1</v>
-      </c>
-      <c r="H119" t="s">
-        <v>4</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>119</v>
-      </c>
-      <c r="E120" t="s">
-        <v>234</v>
-      </c>
-      <c r="F120" t="s">
-        <v>235</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1</v>
-      </c>
-      <c r="H120" t="s">
-        <v>4</v>
-      </c>
-      <c r="I120" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1</v>
-      </c>
-      <c r="D121" t="n">
-        <v>120</v>
-      </c>
-      <c r="E121" t="s">
-        <v>236</v>
-      </c>
-      <c r="F121" t="s">
-        <v>237</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1</v>
-      </c>
-      <c r="H121" t="s">
-        <v>4</v>
-      </c>
-      <c r="I121" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>121</v>
-      </c>
-      <c r="E122" t="s">
-        <v>238</v>
-      </c>
-      <c r="F122" t="s">
-        <v>239</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" t="s">
-        <v>4</v>
-      </c>
-      <c r="I122" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>122</v>
-      </c>
-      <c r="E123" t="s">
-        <v>240</v>
-      </c>
-      <c r="F123" t="s">
-        <v>241</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1</v>
-      </c>
-      <c r="H123" t="s">
-        <v>4</v>
-      </c>
-      <c r="I123" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>123</v>
-      </c>
-      <c r="E124" t="s">
-        <v>242</v>
-      </c>
-      <c r="F124" t="s">
-        <v>243</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1</v>
-      </c>
-      <c r="H124" t="s">
-        <v>4</v>
-      </c>
-      <c r="I124" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>124</v>
-      </c>
-      <c r="E125" t="s">
-        <v>244</v>
-      </c>
-      <c r="F125" t="s">
-        <v>245</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1</v>
-      </c>
-      <c r="H125" t="s">
-        <v>4</v>
-      </c>
-      <c r="I125" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>125</v>
-      </c>
-      <c r="E126" t="s">
-        <v>246</v>
-      </c>
-      <c r="F126" t="s">
-        <v>247</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1</v>
-      </c>
-      <c r="H126" t="s">
-        <v>4</v>
-      </c>
-      <c r="I126" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>0</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>126</v>
-      </c>
-      <c r="E127" t="s">
-        <v>248</v>
-      </c>
-      <c r="F127" t="s">
-        <v>249</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1</v>
-      </c>
-      <c r="H127" t="s">
-        <v>4</v>
-      </c>
-      <c r="I127" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>127</v>
-      </c>
-      <c r="E128" t="s">
-        <v>250</v>
-      </c>
-      <c r="F128" t="s">
-        <v>251</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1</v>
-      </c>
-      <c r="H128" t="s">
-        <v>4</v>
-      </c>
-      <c r="I128" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>128</v>
-      </c>
-      <c r="E129" t="s">
-        <v>252</v>
-      </c>
-      <c r="F129" t="s">
-        <v>253</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1</v>
-      </c>
-      <c r="H129" t="s">
-        <v>4</v>
-      </c>
-      <c r="I129" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>0</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>129</v>
-      </c>
-      <c r="E130" t="s">
-        <v>254</v>
-      </c>
-      <c r="F130" t="s">
-        <v>255</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1</v>
-      </c>
-      <c r="H130" t="s">
-        <v>4</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>130</v>
-      </c>
-      <c r="E131" t="s">
-        <v>256</v>
-      </c>
-      <c r="F131" t="s">
-        <v>257</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1</v>
-      </c>
-      <c r="H131" t="s">
-        <v>4</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>131</v>
-      </c>
-      <c r="E132" t="s">
-        <v>258</v>
-      </c>
-      <c r="F132" t="s">
-        <v>259</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1</v>
-      </c>
-      <c r="H132" t="s">
-        <v>4</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>132</v>
-      </c>
-      <c r="E133" t="s">
-        <v>260</v>
-      </c>
-      <c r="F133" t="s">
-        <v>261</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1</v>
-      </c>
-      <c r="H133" t="s">
-        <v>4</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>0</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>133</v>
-      </c>
-      <c r="E134" t="s">
-        <v>262</v>
-      </c>
-      <c r="F134" t="s">
-        <v>263</v>
-      </c>
-      <c r="G134" t="n">
-        <v>2</v>
-      </c>
-      <c r="H134" t="s">
-        <v>4</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>134</v>
-      </c>
-      <c r="E135" t="s">
-        <v>264</v>
-      </c>
-      <c r="F135" t="s">
-        <v>265</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1</v>
-      </c>
-      <c r="H135" t="s">
-        <v>4</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>0</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>135</v>
-      </c>
-      <c r="E136" t="s">
-        <v>266</v>
-      </c>
-      <c r="F136" t="s">
-        <v>267</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1</v>
-      </c>
-      <c r="H136" t="s">
-        <v>4</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>136</v>
-      </c>
-      <c r="E137" t="s">
-        <v>268</v>
-      </c>
-      <c r="F137" t="s">
-        <v>269</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1</v>
-      </c>
-      <c r="H137" t="s">
-        <v>4</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>137</v>
-      </c>
-      <c r="E138" t="s">
-        <v>270</v>
-      </c>
-      <c r="F138" t="s">
-        <v>271</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1</v>
-      </c>
-      <c r="H138" t="s">
-        <v>4</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>138</v>
-      </c>
-      <c r="E139" t="s">
-        <v>272</v>
-      </c>
-      <c r="F139" t="s">
-        <v>273</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1</v>
-      </c>
-      <c r="H139" t="s">
-        <v>4</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>0</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>139</v>
-      </c>
-      <c r="E140" t="s">
-        <v>274</v>
-      </c>
-      <c r="F140" t="s">
-        <v>275</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1</v>
-      </c>
-      <c r="H140" t="s">
-        <v>4</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>140</v>
-      </c>
-      <c r="E141" t="s">
-        <v>276</v>
-      </c>
-      <c r="F141" t="s">
-        <v>277</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1</v>
-      </c>
-      <c r="H141" t="s">
-        <v>4</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>0</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>141</v>
-      </c>
-      <c r="E142" t="s">
-        <v>278</v>
-      </c>
-      <c r="F142" t="s">
-        <v>279</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1</v>
-      </c>
-      <c r="H142" t="s">
-        <v>4</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>142</v>
-      </c>
-      <c r="E143" t="s">
-        <v>280</v>
-      </c>
-      <c r="F143" t="s">
-        <v>281</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1</v>
-      </c>
-      <c r="H143" t="s">
-        <v>4</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>0</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>143</v>
-      </c>
-      <c r="E144" t="s">
-        <v>282</v>
-      </c>
-      <c r="F144" t="s">
-        <v>283</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1</v>
-      </c>
-      <c r="H144" t="s">
-        <v>4</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>144</v>
-      </c>
-      <c r="E145" t="s">
-        <v>284</v>
-      </c>
-      <c r="F145" t="s">
-        <v>285</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1</v>
-      </c>
-      <c r="H145" t="s">
-        <v>4</v>
-      </c>
-      <c r="I145" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>0</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>145</v>
-      </c>
-      <c r="E146" t="s">
-        <v>286</v>
-      </c>
-      <c r="F146" t="s">
-        <v>287</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1</v>
-      </c>
-      <c r="H146" t="s">
-        <v>4</v>
-      </c>
-      <c r="I146" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>146</v>
-      </c>
-      <c r="E147" t="s">
-        <v>288</v>
-      </c>
-      <c r="F147" t="s">
-        <v>289</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1</v>
-      </c>
-      <c r="H147" t="s">
-        <v>4</v>
-      </c>
-      <c r="I147" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>0</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>147</v>
-      </c>
-      <c r="E148" t="s">
-        <v>290</v>
-      </c>
-      <c r="F148" t="s">
-        <v>291</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1</v>
-      </c>
-      <c r="H148" t="s">
-        <v>4</v>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>148</v>
-      </c>
-      <c r="E149" t="s">
-        <v>292</v>
-      </c>
-      <c r="F149" t="s">
-        <v>293</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1</v>
-      </c>
-      <c r="H149" t="s">
-        <v>4</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>149</v>
-      </c>
-      <c r="E150" t="s">
-        <v>294</v>
-      </c>
-      <c r="F150" t="s">
-        <v>295</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1</v>
-      </c>
-      <c r="H150" t="s">
-        <v>4</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
